--- a/database/industries/nasaji/netrin/product/yearly.xlsx
+++ b/database/industries/nasaji/netrin/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\nasaji\netrin\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\nasaji\netrin\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9389091-F60B-4223-920F-82CAE5E57D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D64536-38A1-4737-94F3-F9E53AD58657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -662,12 +662,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -677,7 +677,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -689,7 +689,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -711,7 +711,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -735,7 +735,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -745,7 +745,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -767,7 +767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -777,7 +777,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -801,7 +801,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -825,7 +825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -871,7 +871,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -895,7 +895,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -919,7 +919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -943,7 +943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -967,7 +967,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -991,7 +991,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>27</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>28</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>29</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>30</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>31</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>32</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>33</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>34</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>35</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>36</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>37</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>38</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>39</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>40</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>41</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
         <v>42</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>43</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
         <v>44</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>45</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>46</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>47</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>48</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>49</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>50</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1719,7 +1719,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1729,7 +1729,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1739,7 +1739,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
         <v>51</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1771,7 +1771,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
         <v>10</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>12</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>52</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>14</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>15</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
         <v>17</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>18</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>19</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>20</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>21</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>22</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
         <v>23</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>24</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>25</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>26</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
         <v>27</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>28</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
         <v>29</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>30</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
         <v>31</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>32</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>33</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>34</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
         <v>35</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>36</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
         <v>37</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>38</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
         <v>39</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>40</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
         <v>41</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>42</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
         <v>43</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>45</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
         <v>46</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
         <v>47</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
         <v>48</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
         <v>49</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
         <v>50</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2713,7 +2713,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2723,7 +2723,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2733,7 +2733,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
         <v>54</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2765,7 +2765,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
         <v>10</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>160534</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
         <v>12</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
         <v>52</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
         <v>14</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
         <v>15</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>9987</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
         <v>16</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>29134</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
         <v>17</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
         <v>18</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
         <v>19</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>665965</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
         <v>20</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>269619</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
         <v>21</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
         <v>22</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
         <v>23</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
         <v>24</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
         <v>25</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
         <v>26</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
         <v>27</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
         <v>28</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
         <v>29</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
         <v>30</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" s="8" t="s">
         <v>31</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
         <v>32</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
         <v>33</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
         <v>34</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
         <v>35</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>90918</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
         <v>36</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
         <v>37</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
         <v>38</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" s="8" t="s">
         <v>39</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
         <v>40</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" s="8" t="s">
         <v>41</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
         <v>42</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" s="8" t="s">
         <v>43</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
         <v>45</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" s="8" t="s">
         <v>46</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" s="10" t="s">
         <v>47</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>269165</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" s="8" t="s">
         <v>48</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>136949</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
         <v>49</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" s="12" t="s">
         <v>50</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>1632271</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3709,7 +3709,7 @@
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3719,7 +3719,7 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3729,7 +3729,7 @@
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
         <v>56</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3761,7 +3761,7 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" s="8" t="s">
         <v>10</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>691956897</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" s="10" t="s">
         <v>12</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="s">
         <v>52</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" s="10" t="s">
         <v>14</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" s="8" t="s">
         <v>15</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>138708333</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
         <v>16</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>560269231</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" s="8" t="s">
         <v>17</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
         <v>18</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" s="8" t="s">
         <v>19</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>589871568</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" s="10" t="s">
         <v>20</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>679141058</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" s="8" t="s">
         <v>21</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" s="10" t="s">
         <v>22</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B154" s="8" t="s">
         <v>23</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B155" s="10" t="s">
         <v>24</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B156" s="8" t="s">
         <v>25</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
         <v>26</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B158" s="8" t="s">
         <v>27</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" s="10" t="s">
         <v>28</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B160" s="8" t="s">
         <v>29</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" s="10" t="s">
         <v>30</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" s="8" t="s">
         <v>31</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" s="10" t="s">
         <v>32</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" s="8" t="s">
         <v>33</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" s="10" t="s">
         <v>34</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166" s="8" t="s">
         <v>35</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>426845070</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" s="10" t="s">
         <v>36</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B168" s="8" t="s">
         <v>37</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B169" s="10" t="s">
         <v>38</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" s="8" t="s">
         <v>39</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" s="10" t="s">
         <v>40</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" s="8" t="s">
         <v>41</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B173" s="10" t="s">
         <v>42</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" s="8" t="s">
         <v>43</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B175" s="10" t="s">
         <v>45</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B176" s="8" t="s">
         <v>46</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B177" s="10" t="s">
         <v>47</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>909341216</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B178" s="8" t="s">
         <v>48</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>883541935</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B179" s="10" t="s">
         <v>49</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -4683,7 +4683,7 @@
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -4693,7 +4693,7 @@
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -4703,7 +4703,7 @@
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
     </row>
-    <row r="183" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B183" s="7" t="s">
         <v>59</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -4735,7 +4735,7 @@
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B185" s="8" t="s">
         <v>10</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>-110762</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B186" s="10" t="s">
         <v>52</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B187" s="8" t="s">
         <v>14</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B188" s="10" t="s">
         <v>15</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>-8751</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B189" s="8" t="s">
         <v>16</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>-23827</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B190" s="10" t="s">
         <v>17</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B191" s="8" t="s">
         <v>18</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B192" s="10" t="s">
         <v>19</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>-502633</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B193" s="8" t="s">
         <v>20</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>-174371</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B194" s="10" t="s">
         <v>21</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B195" s="8" t="s">
         <v>22</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B196" s="10" t="s">
         <v>23</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B197" s="8" t="s">
         <v>24</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B198" s="10" t="s">
         <v>25</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B199" s="8" t="s">
         <v>26</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B200" s="10" t="s">
         <v>27</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B201" s="8" t="s">
         <v>28</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B202" s="10" t="s">
         <v>29</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B203" s="8" t="s">
         <v>30</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B204" s="10" t="s">
         <v>31</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B205" s="8" t="s">
         <v>32</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B206" s="10" t="s">
         <v>33</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B207" s="8" t="s">
         <v>35</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>-88783</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B208" s="10" t="s">
         <v>37</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B209" s="8" t="s">
         <v>38</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B210" s="10" t="s">
         <v>39</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B211" s="8" t="s">
         <v>40</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B212" s="10" t="s">
         <v>41</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B213" s="8" t="s">
         <v>42</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B214" s="10" t="s">
         <v>43</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B215" s="8" t="s">
         <v>45</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B216" s="10" t="s">
         <v>46</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B217" s="8" t="s">
         <v>47</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>-157954</v>
       </c>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B218" s="10" t="s">
         <v>48</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>-72467</v>
       </c>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B219" s="8" t="s">
         <v>49</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B220" s="14" t="s">
         <v>50</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>-1139548</v>
       </c>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -5607,7 +5607,7 @@
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -5617,7 +5617,7 @@
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -5627,7 +5627,7 @@
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
     </row>
-    <row r="224" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B224" s="7" t="s">
         <v>60</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -5659,7 +5659,7 @@
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
     </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B226" s="8" t="s">
         <v>10</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>49772</v>
       </c>
     </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B227" s="10" t="s">
         <v>52</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B228" s="8" t="s">
         <v>14</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B229" s="10" t="s">
         <v>15</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B230" s="8" t="s">
         <v>16</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>5307</v>
       </c>
     </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B231" s="10" t="s">
         <v>17</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B232" s="8" t="s">
         <v>18</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B233" s="10" t="s">
         <v>19</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>163332</v>
       </c>
     </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B234" s="8" t="s">
         <v>20</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>95248</v>
       </c>
     </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B235" s="10" t="s">
         <v>21</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B236" s="8" t="s">
         <v>22</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B237" s="10" t="s">
         <v>23</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B238" s="8" t="s">
         <v>24</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B239" s="10" t="s">
         <v>25</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B240" s="8" t="s">
         <v>26</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B241" s="10" t="s">
         <v>27</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B242" s="8" t="s">
         <v>28</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B243" s="10" t="s">
         <v>29</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B244" s="8" t="s">
         <v>30</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B245" s="10" t="s">
         <v>31</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B246" s="8" t="s">
         <v>32</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B247" s="10" t="s">
         <v>33</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B248" s="8" t="s">
         <v>35</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B249" s="10" t="s">
         <v>37</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B250" s="8" t="s">
         <v>38</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B251" s="10" t="s">
         <v>39</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B252" s="8" t="s">
         <v>40</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B253" s="10" t="s">
         <v>41</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B254" s="8" t="s">
         <v>42</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B255" s="10" t="s">
         <v>43</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B256" s="8" t="s">
         <v>45</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B257" s="10" t="s">
         <v>46</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B258" s="8" t="s">
         <v>47</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>111211</v>
       </c>
     </row>
-    <row r="259" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B259" s="10" t="s">
         <v>48</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>64482</v>
       </c>
     </row>
-    <row r="260" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B260" s="8" t="s">
         <v>49</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B261" s="14" t="s">
         <v>50</v>
       </c>
